--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1703756.516781308</v>
+        <v>-1668301.987459857</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.1802549</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10899840.26957748</v>
+        <v>10915225.33940308</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>381.3341722012726</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="E2" t="n">
-        <v>29.43699739328775</v>
-      </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>216.6746046026972</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>226.4187932896031</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>390.5677283915031</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>125.6360710829448</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>141.2302943333122</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +905,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>193.1454636975714</v>
+        <v>202.8119305171232</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>8.129390960577833</v>
+        <v>31.68796577450656</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1133,16 +1133,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>322.2568246624399</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>129.475840043234</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,16 +1300,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>73.01514676193516</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1348,16 +1348,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.61331689267484</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791315016</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800146</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556919</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>378.7187202042975</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244307</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225165</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U13" t="n">
-        <v>114.8528499950181</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791315016</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800146</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556919</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864827</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244307</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665293</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973307151</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168194</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>157.6489550149834</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U16" t="n">
-        <v>179.0861311466703</v>
+        <v>172.6623007436891</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791315016</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800146</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556919</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655132</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E19" t="n">
-        <v>50.29424103733277</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244307</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225571</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791315016</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800146</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556919</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655136</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244307</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>82.6248312129199</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>21.20364308168194</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>157.6489550149834</v>
       </c>
       <c r="T22" t="n">
-        <v>228.207631694666</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
     <row r="23">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244307</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225571</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U25" t="n">
-        <v>222.6988144892033</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
     <row r="26">
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3044,7 +3044,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -3190,7 +3190,7 @@
         <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E34" t="n">
         <v>151.8247133730227</v>
@@ -3205,7 +3205,7 @@
         <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432402</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934455</v>
+        <v>4.96793274293444</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3442,7 +3442,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934476</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3560,7 +3560,7 @@
         <v>240.3943693174059</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267649</v>
       </c>
       <c r="W38" t="n">
         <v>384.5711897043296</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3746,13 +3746,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545403</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F41" t="n">
-        <v>407.3530449561369</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242213</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H41" t="n">
         <v>270.0031426724685</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925392</v>
+        <v>66.57964473925396</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169443</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174058</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267643</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W41" t="n">
         <v>384.5711897043296</v>
@@ -3916,7 +3916,7 @@
         <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432397</v>
+        <v>71.53763939432402</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934401</v>
+        <v>4.967932742934444</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -3955,13 +3955,13 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095264</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W43" t="n">
         <v>253.070430030824</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811742</v>
+        <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
         <v>208.9097636402854</v>
@@ -3983,13 +3983,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545403</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F44" t="n">
-        <v>407.3530449561369</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242213</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H44" t="n">
         <v>270.0031426724685</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925392</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169443</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174058</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267643</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W44" t="n">
         <v>384.5711897043296</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432442</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934401</v>
+        <v>4.96793274293448</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4192,13 +4192,13 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095264</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W46" t="n">
         <v>253.070430030824</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811742</v>
+        <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
         <v>208.9097636402854</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>917.4845405927651</v>
+        <v>1082.786411213498</v>
       </c>
       <c r="C2" t="n">
-        <v>917.4845405927651</v>
+        <v>1082.786411213498</v>
       </c>
       <c r="D2" t="n">
-        <v>488.9028663300335</v>
+        <v>1082.786411213498</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>654.2047369507659</v>
       </c>
       <c r="F2" t="n">
         <v>435.3414999783445</v>
@@ -4328,28 +4328,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>437.0247332457074</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1277.130531135514</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4361,19 +4361,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1468.477578272737</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1105.860628206564</v>
       </c>
       <c r="W2" t="n">
-        <v>1302.670573119303</v>
+        <v>1105.045577658001</v>
       </c>
       <c r="X2" t="n">
-        <v>1302.670573119303</v>
+        <v>1105.045577658001</v>
       </c>
       <c r="Y2" t="n">
-        <v>1302.670573119303</v>
+        <v>1105.045577658001</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="L3" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="M3" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="N3" t="n">
         <v>739.9048540962709</v>
-      </c>
-      <c r="L3" t="n">
-        <v>739.9048540962709</v>
-      </c>
-      <c r="M3" t="n">
-        <v>739.9048540962709</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339.4371178854062</v>
+        <v>422.0704516497129</v>
       </c>
       <c r="C4" t="n">
-        <v>339.4371178854062</v>
+        <v>249.5087401329378</v>
       </c>
       <c r="D4" t="n">
-        <v>339.4371178854062</v>
+        <v>249.5087401329378</v>
       </c>
       <c r="E4" t="n">
-        <v>339.4371178854062</v>
+        <v>249.5087401329378</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>249.5087401329378</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>249.5087401329378</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>68.8461756808652</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>343.6046302520008</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4516,22 +4516,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1554.526567117476</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1276.093566370581</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1276.093566370581</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>1004.067161956872</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X4" t="n">
-        <v>758.675407290285</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y4" t="n">
-        <v>531.2557366043933</v>
+        <v>613.8890703687</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>325.162676314438</v>
+        <v>351.1922015055537</v>
       </c>
       <c r="C5" t="n">
-        <v>291.0606075382654</v>
+        <v>317.090132729381</v>
       </c>
       <c r="D5" t="n">
-        <v>259.191226753114</v>
+        <v>285.2207519442296</v>
       </c>
       <c r="E5" t="n">
-        <v>229.4568859518132</v>
+        <v>255.4864111429289</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1112.375769149669</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1189.145706210985</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.64091264069</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599284</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2447.641889536178</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2227.574662409217</v>
       </c>
       <c r="U5" t="n">
-        <v>1134.24202645431</v>
+        <v>1968.352359726234</v>
       </c>
       <c r="V5" t="n">
-        <v>771.6250763881362</v>
+        <v>1605.73540966006</v>
       </c>
       <c r="W5" t="n">
-        <v>366.7696217991695</v>
+        <v>1200.879955071093</v>
       </c>
       <c r="X5" t="n">
-        <v>351.6675624188842</v>
+        <v>781.737491650404</v>
       </c>
       <c r="Y5" t="n">
-        <v>347.4218427589418</v>
+        <v>373.4513679500574</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.36152745083436</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.68954842750442</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.2478733937167</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>1129.684035878928</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>957.1223243621531</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>791.2443315636758</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>621.4863278144131</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>444.7792737761693</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>279.187998801997</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923715</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.2055604317367</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.9640150028723</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>830.1738967708334</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1289.657763951746</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1731.916567109391</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2151.585816335172</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2363.100988488009</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.875942057713</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2350.63457335571</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2104.755126934165</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1826.32212618727</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1826.32212618727</v>
       </c>
       <c r="W7" t="n">
-        <v>1688.971924059632</v>
+        <v>1794.314079950395</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1548.922325283807</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>1321.502654597915</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C8" t="n">
-        <v>1216.618961230546</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D8" t="n">
-        <v>788.0372869678147</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>359.455612705083</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.558048676956</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1830.702594087989</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1411.5601306673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539589</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160836</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206596</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>675.0731144331462</v>
+        <v>826.9659278567121</v>
       </c>
       <c r="C10" t="n">
-        <v>675.0731144331462</v>
+        <v>654.4042163399371</v>
       </c>
       <c r="D10" t="n">
-        <v>509.1951216346689</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E10" t="n">
-        <v>339.4371178854062</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>91.74450617142992</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>509.954387939391</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2574.890331639896</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>2329.010885218351</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>2050.577884471456</v>
       </c>
       <c r="V10" t="n">
-        <v>1172.870982911978</v>
+        <v>1763.622376341887</v>
       </c>
       <c r="W10" t="n">
-        <v>900.8445784982696</v>
+        <v>1491.595971928179</v>
       </c>
       <c r="X10" t="n">
-        <v>900.8445784982696</v>
+        <v>1246.204217261591</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.8917331521334</v>
+        <v>1018.784546575699</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2068.24466693776</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2068.24466693776</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1632.334882112204</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.560137270499</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>770.6927076797069</v>
+        <v>793.2056155771598</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2948763029707</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>80.16472174618701</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618701</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991048</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.769701157283</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>1653.247759947053</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>1653.247759947053</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N11" t="n">
-        <v>1653.247759947053</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>2633.427426517359</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>3461.737301350755</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4008.23608730935</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.23608730935</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493187</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>3704.516986366226</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>3704.516986366226</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3704.516986366226</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3321.972824543703</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>2902.830361123014</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y11" t="n">
-        <v>2494.544237422667</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374798</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.8800055741221</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206754</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476291</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637907</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299745</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618701</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066446</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.786719872857</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1085.492766498581</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1085.492766498581</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1085.492766498581</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1085.492766498581</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1085.492766498581</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380222</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172429</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>930.6607588231182</v>
+        <v>952.7568773477115</v>
       </c>
       <c r="C13" t="n">
-        <v>758.0990473063431</v>
+        <v>780.1951658309363</v>
       </c>
       <c r="D13" t="n">
-        <v>592.2210545078658</v>
+        <v>614.3171730324589</v>
       </c>
       <c r="E13" t="n">
-        <v>422.4630507586031</v>
+        <v>444.559169283196</v>
       </c>
       <c r="F13" t="n">
-        <v>245.7559967203593</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G13" t="n">
-        <v>80.16472174618701</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16472174618701</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618701</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108768</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820125</v>
+        <v>463.5989800066048</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499735</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R13" t="n">
-        <v>2675.406510354358</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="S13" t="n">
-        <v>2516.165141652355</v>
+        <v>2700.681281130896</v>
       </c>
       <c r="T13" t="n">
-        <v>2270.28569523081</v>
+        <v>2454.801834709351</v>
       </c>
       <c r="U13" t="n">
-        <v>2154.272715437863</v>
+        <v>2176.368833962456</v>
       </c>
       <c r="V13" t="n">
-        <v>1867.317207308293</v>
+        <v>1889.413325832887</v>
       </c>
       <c r="W13" t="n">
-        <v>1595.290802894585</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X13" t="n">
-        <v>1349.899048227997</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1122.479377542105</v>
+        <v>1144.575496066699</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5264,64 +5264,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771598</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1039.550377927472</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2114.610344180331</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>3271.658179390882</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D15" t="n">
         <v>406.885835245268</v>
@@ -5346,10 +5346,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
         <v>128.3245134312372</v>
@@ -5358,37 +5358,37 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S15" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T15" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V15" t="n">
         <v>1196.412455590541</v>
@@ -5397,10 +5397,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y15" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>1181.319000882662</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>1008.757289365887</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>842.8792965674093</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>673.1212928181463</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>496.4142387799025</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057297</v>
+        <v>330.82296380573</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961044</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L16" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M16" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755402</v>
       </c>
       <c r="U16" t="n">
-        <v>2132.904553083697</v>
+        <v>2117.975449367837</v>
       </c>
       <c r="V16" t="n">
-        <v>1845.949044954127</v>
+        <v>2117.975449367837</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1845.949044954129</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1600.557290287541</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5501,64 +5501,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771598</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N17" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D18" t="n">
         <v>406.885835245268</v>
@@ -5583,10 +5583,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
         <v>128.3245134312372</v>
@@ -5616,16 +5616,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S18" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T18" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V18" t="n">
         <v>1196.412455590541</v>
@@ -5634,10 +5634,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y18" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1062.363260807472</v>
+        <v>952.7568773477115</v>
       </c>
       <c r="C19" t="n">
-        <v>889.8015492906967</v>
+        <v>780.1951658309363</v>
       </c>
       <c r="D19" t="n">
-        <v>723.9235564922194</v>
+        <v>614.3171730324589</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831961</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M19" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O19" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q19" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130896</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.801834709351</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962456</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832887</v>
       </c>
       <c r="W19" t="n">
-        <v>1726.993304878938</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X19" t="n">
-        <v>1481.601550212351</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1254.181879526459</v>
+        <v>1144.575496066699</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,64 +5738,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771598</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M20" t="n">
-        <v>2758.053686176683</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D21" t="n">
         <v>406.885835245268</v>
@@ -5820,10 +5820,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I21" t="n">
         <v>128.3245134312372</v>
@@ -5853,16 +5853,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T21" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V21" t="n">
         <v>1196.412455590541</v>
@@ -5871,10 +5871,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>1036.216302815307</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>863.6545912985321</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>697.7765985000547</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>528.0185947507919</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>351.311540712548</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>185.7202657383755</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O22" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q22" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S22" t="n">
         <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2307.748500889406</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.315500142511</v>
+        <v>2259.828259430052</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1700.846346886774</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1455.454592220186</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1228.034921534294</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5999,40 +5999,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477115</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309363</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324589</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.559169283196</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6145,25 +6145,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066048</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q25" t="n">
         <v>2718.920450173579</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130896</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.801834709351</v>
       </c>
       <c r="U25" t="n">
-        <v>2088.851337586189</v>
+        <v>2176.368833962456</v>
       </c>
       <c r="V25" t="n">
-        <v>1801.895829456619</v>
+        <v>1889.413325832887</v>
       </c>
       <c r="W25" t="n">
-        <v>1529.869425042911</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X25" t="n">
-        <v>1284.477670376323</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066699</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6467,10 +6467,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1431.851786213076</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,43 +6707,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6835,16 +6835,16 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.359044888629</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030279</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E34" t="n">
         <v>607.5224631666413</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G34" t="n">
         <v>298.0235489799775</v>
@@ -6962,7 +6962,7 @@
         <v>4878.335183790893</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
         <v>4607.415497673521</v>
@@ -7072,10 +7072,10 @@
         <v>1061.826912397567</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080665</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E37" t="n">
         <v>602.8283265716797</v>
@@ -7120,13 +7120,13 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
         <v>2465.473625281949</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V37" t="n">
         <v>1932.884531231237</v>
@@ -7157,19 +7157,19 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7196,28 +7196,28 @@
         <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7312,10 +7312,10 @@
         <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
         <v>442.520979946312</v>
@@ -7327,16 +7327,16 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758674</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823628</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856838</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
@@ -7348,28 +7348,28 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.47362528195</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976693</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197254</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581808</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7433,28 +7433,28 @@
         <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673519</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7546,61 +7546,61 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463117</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850156</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758677</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823632</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856841</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301956</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.22416169496</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156102</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361803</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461495</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579743</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290616</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7609,7 +7609,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7637,13 +7637,13 @@
         <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197254</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7670,19 +7670,19 @@
         <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
         <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673519</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
         <v>3629.919912574025</v>
@@ -7691,7 +7691,7 @@
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
         <v>1102.894748428211</v>
@@ -7786,46 +7786,46 @@
         <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463122</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.329412385016</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882667</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758677</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823632</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856841</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
         <v>2837.795025579745</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8058,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>358.9284720888815</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>632.8234408380854</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>77.54539097102611</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>632.8234408380854</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,13 +8295,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>28.49579817779727</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,19 +8377,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>213.651689043269</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>58.3846844139612</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>306.5434937270402</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,22 +8927,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>507.105909296742</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,10 +9006,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N17" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10115,13 +10115,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497093</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497093</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497093</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.70240257878612</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>30.21128636655014</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>22.08817983877952</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665293</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973307151</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168194</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627318</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>96.56253959275537</v>
+        <v>102.9863699957367</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665293</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307151</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168194</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627277</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>55.87832135360944</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973307151</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>15.21302026266324</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665293</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973307151</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>21.20364308168194</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627277</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>52.94985625022238</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>863126.525229736</v>
+        <v>718079.3569628771</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>942111.1767904504</v>
+        <v>952803.7972344443</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>942111.1767904504</v>
+        <v>954582.6788481177</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>806923.310274619</v>
+        <v>962852.2589320489</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>962852.2589320492</v>
+        <v>962852.258932049</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>962852.2589320492</v>
+        <v>962852.258932049</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>962852.2589320492</v>
+        <v>962852.258932049</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>962852.2589320492</v>
+        <v>962852.2589320489</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>962852.2589320489</v>
+        <v>962852.2589320492</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>978644.8097122448</v>
+        <v>978644.8097122447</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24484.28800744058</v>
+        <v>20218.19482312122</v>
       </c>
       <c r="C2" t="n">
         <v>26807.36599452043</v>
@@ -26320,10 +26320,10 @@
         <v>26807.36599452043</v>
       </c>
       <c r="E2" t="n">
-        <v>22076.78602254823</v>
+        <v>26342.87920686762</v>
       </c>
       <c r="F2" t="n">
-        <v>26342.87920686762</v>
+        <v>26342.87920686763</v>
       </c>
       <c r="G2" t="n">
         <v>26342.87920686762</v>
@@ -26335,7 +26335,7 @@
         <v>26342.87920686762</v>
       </c>
       <c r="J2" t="n">
-        <v>26342.87920686761</v>
+        <v>26342.87920686762</v>
       </c>
       <c r="K2" t="n">
         <v>26342.87920686762</v>
@@ -26347,13 +26347,13 @@
         <v>26807.36599452043</v>
       </c>
       <c r="N2" t="n">
+        <v>26807.36599452042</v>
+      </c>
+      <c r="O2" t="n">
+        <v>26807.36599452042</v>
+      </c>
+      <c r="P2" t="n">
         <v>26807.36599452043</v>
-      </c>
-      <c r="O2" t="n">
-        <v>26807.36599452044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>26807.36599452044</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246225</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106419</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725251</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471775</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338211</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143521</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978841</v>
+        <v>137577.7007378521</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341104</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173310.0976664681</v>
+        <v>124611.1870481617</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>162797.3894436016</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>56988.33653407511</v>
+        <v>68000.69828933265</v>
       </c>
       <c r="F4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933265</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933265</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933263</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933278</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>73343.05610596602</v>
+        <v>73343.05610596608</v>
       </c>
       <c r="M4" t="n">
-        <v>81349.24995213679</v>
+        <v>81349.24995213677</v>
       </c>
       <c r="N4" t="n">
+        <v>81349.24995213677</v>
+      </c>
+      <c r="O4" t="n">
+        <v>81349.2499521368</v>
+      </c>
+      <c r="P4" t="n">
         <v>81349.24995213676</v>
-      </c>
-      <c r="O4" t="n">
-        <v>81349.24995213682</v>
-      </c>
-      <c r="P4" t="n">
-        <v>81349.24995213683</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295558</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710212</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
+        <v>77718.23860579253</v>
+      </c>
+      <c r="G5" t="n">
+        <v>77718.23860579253</v>
+      </c>
+      <c r="H5" t="n">
+        <v>77718.23860579253</v>
+      </c>
+      <c r="I5" t="n">
         <v>77718.2386057925</v>
-      </c>
-      <c r="G5" t="n">
-        <v>77718.2386057925</v>
-      </c>
-      <c r="H5" t="n">
-        <v>77718.2386057925</v>
-      </c>
-      <c r="I5" t="n">
-        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-350441.8984559598</v>
+        <v>-306338.5395805427</v>
       </c>
       <c r="C6" t="n">
-        <v>-232446.2483892175</v>
+        <v>-275462.438044499</v>
       </c>
       <c r="D6" t="n">
-        <v>-232446.2483892175</v>
+        <v>-214818.1030209752</v>
       </c>
       <c r="E6" t="n">
-        <v>-268344.1091111541</v>
+        <v>-301754.39124869</v>
       </c>
       <c r="F6" t="n">
-        <v>-198514.9633929754</v>
+        <v>-119399.2820276402</v>
       </c>
       <c r="G6" t="n">
-        <v>-119376.0576882577</v>
+        <v>-119399.2820276402</v>
       </c>
       <c r="H6" t="n">
-        <v>-119376.0576882577</v>
+        <v>-119399.2820276402</v>
       </c>
       <c r="I6" t="n">
-        <v>-119376.0576882577</v>
+        <v>-119399.2820276402</v>
       </c>
       <c r="J6" t="n">
-        <v>-230390.5230332479</v>
+        <v>-230413.7473726305</v>
       </c>
       <c r="K6" t="n">
-        <v>-119376.0576882577</v>
+        <v>-173067.6090910225</v>
       </c>
       <c r="L6" t="n">
-        <v>-138607.4169207042</v>
+        <v>-147387.5906111415</v>
       </c>
       <c r="M6" t="n">
-        <v>-259415.9200815902</v>
+        <v>-267635.1994215582</v>
       </c>
       <c r="N6" t="n">
-        <v>-197706.6989571171</v>
+        <v>-130057.4986837061</v>
       </c>
       <c r="O6" t="n">
         <v>-130057.4986837061</v>
       </c>
       <c r="P6" t="n">
-        <v>-130057.4986837061</v>
+        <v>-130057.498683706</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
         <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
+        <v>16.23571033874738</v>
+      </c>
+      <c r="O2" t="n">
+        <v>16.23571033874739</v>
+      </c>
+      <c r="P2" t="n">
         <v>16.23571033874736</v>
-      </c>
-      <c r="O2" t="n">
-        <v>16.23571033874743</v>
-      </c>
-      <c r="P2" t="n">
-        <v>16.23571033874743</v>
       </c>
     </row>
     <row r="3">
@@ -26790,22 +26790,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827338</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179809</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977171</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072332</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574075</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179809</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977171</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702111</v>
+        <v>552.0685893398665</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574071</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179809</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977171</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072332</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574075</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>206.9141506921871</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>10.23917165157388</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27549,13 +27549,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>12.86708148358447</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>102.1903576240171</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27625,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>230.4432915973129</v>
+        <v>220.7768247777611</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1767494089935</v>
+        <v>237.6181745950648</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F8" t="n">
-        <v>101.3319306324444</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>229.5149405222777</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>84.63380825304814</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.532157086358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-4.583541945526324e-12</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-9.695074878414438e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.454652797752011e-12</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="35">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387468</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="M43" t="n">
-        <v>16.235710338746</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874739</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874743</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>358.9284720888815</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>632.8234408380854</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>77.54539097102611</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>632.8234408380854</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35012,16 +35012,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>28.49579817779727</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35097,19 +35097,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>213.651689043269</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>58.3846844139612</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>306.5434937270402</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908055</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.90833255129</v>
       </c>
       <c r="P13" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35647,22 +35647,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>507.105909296742</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35723,13 +35723,13 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,10 +35817,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512936</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35884,16 +35884,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N17" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,10 +36054,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36121,16 +36121,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,10 +36291,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908058</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,10 +36528,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P25" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36835,13 +36835,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37230,7 +37230,7 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497093</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778278</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
         <v>293.7695028348439</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.1274021209001</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497093</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>103.6899377778281</v>
       </c>
       <c r="K43" t="n">
-        <v>293.769502834844</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033046</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497093</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
-        <v>293.769502834844</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L46" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
